--- a/初評中介板.xlsx
+++ b/初評中介板.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="服務使用次數" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="182">
   <si>
     <t xml:space="preserve">個案編號</t>
   </si>
@@ -623,6 +623,7 @@
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -692,16 +693,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -717,37 +718,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBEEF4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -822,163 +792,163 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="8.9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-      <c r="M3" s="0"/>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
-      <c r="R3" s="0"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1002,130 +972,130 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="6.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="1" width="9.34"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="8.9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="0"/>
-      <c r="J3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1151,7 +1121,7 @@
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.34"/>
@@ -1161,147 +1131,147 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="25.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="17" style="1" width="8.9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="0"/>
+      <c r="P3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1321,11 +1291,11 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.07"/>
@@ -1344,7 +1314,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="16.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="27" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="27" style="1" width="8.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1427,88 +1397,157 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+    <row r="3" customFormat="false" ht="18.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1534,13 +1573,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.22"/>
@@ -1549,7 +1588,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="18.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="8.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1593,79 +1632,79 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1691,19 +1730,19 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,61 +1777,61 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1815,77 +1854,77 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1907,11 +1946,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.56"/>
@@ -1919,52 +1958,52 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="8.9"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="true" ht="16.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
     </row>

--- a/初評中介板.xlsx
+++ b/初評中介板.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source_examples\python_examples\LTC_data_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\LTC_data_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAF649-BC90-4D28-8ABD-8454B2BADE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E20E61-3404-4904-BBC2-1FCD7D64F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="3330" windowWidth="24780" windowHeight="9015" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1140" windowWidth="19848" windowHeight="8088" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服務使用次數" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
   <si>
     <t>個案編號</t>
   </si>
@@ -592,6 +592,22 @@
   <si>
     <t>福利身分</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>男輸出1，女輸出2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般--&gt;4</t>
+  </si>
+  <si>
+    <t>1.5~2.5倍--&gt;3</t>
+  </si>
+  <si>
+    <t>未達1.5倍--&gt;2</t>
+  </si>
+  <si>
+    <t>未達1倍--&gt;1</t>
   </si>
 </sst>
 </file>
@@ -655,7 +671,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +708,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -707,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +764,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,16 +1155,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="17.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1269,7 +1294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="16.2" x14ac:dyDescent="0.3">
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
@@ -1297,30 +1322,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="9.375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
+    <col min="11" max="11" width="28.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="9.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1367,7 +1392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1414,14 +1439,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E3" s="12" t="s">
+        <v>185</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H3"/>
+      <c r="H3" s="12" t="s">
+        <v>186</v>
+      </c>
       <c r="K3" s="4" t="s">
         <v>46</v>
       </c>
@@ -1436,6 +1466,21 @@
       </c>
       <c r="O3" s="11" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H4" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H5" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H6" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1453,25 +1498,25 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="9" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -1521,7 +1566,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>45</v>
       </c>
@@ -1620,29 +1665,29 @@
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="9" width="12.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" customWidth="1"/>
     <col min="12" max="13" width="14" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="20" width="13.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5" style="1" customWidth="1"/>
+    <col min="18" max="20" width="13.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" style="1" customWidth="1"/>
     <col min="22" max="23" width="14" style="1" customWidth="1"/>
-    <col min="24" max="26" width="13.25" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="1"/>
+    <col min="24" max="26" width="13.21875" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1767,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>122</v>
       </c>
@@ -1891,25 +1936,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1995,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1991,7 +2036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>145</v>
       </c>
@@ -2041,22 +2086,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="5" max="5" width="12.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2133,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2120,7 +2165,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>146</v>
       </c>
@@ -2161,15 +2206,15 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2192,7 +2237,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -2215,7 +2260,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>173</v>
       </c>
@@ -2247,18 +2292,18 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="6" max="7" width="13.44140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -2281,7 +2326,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
